--- a/Doc/Anforderungen.xlsx
+++ b/Doc/Anforderungen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28060" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Antwort-Zeiten, Usability, Sicherheit, verwendete Technologie.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Beim Beantworten dauert die Anzeige ob richtig oder falsch maximal eine Sekunde.</t>
   </si>
@@ -39,6 +36,39 @@
   </si>
   <si>
     <t>MySQL</t>
+  </si>
+  <si>
+    <t>Der User kann sein Konto löschen. (Sicherheit)</t>
+  </si>
+  <si>
+    <t>jQuery</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>php</t>
+  </si>
+  <si>
+    <t>Verwendete Technologien:</t>
+  </si>
+  <si>
+    <t>(SpotifyAPI)</t>
+  </si>
+  <si>
+    <t>Antwortzeiten</t>
+  </si>
+  <si>
+    <t>Sicherheit</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>Das Game benötigt keine Anleitung.</t>
+  </si>
+  <si>
+    <t>Nicht funktionale Anforderungen an SongQuiz</t>
   </si>
 </sst>
 </file>
@@ -353,43 +383,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>3</v>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Anforderungen.xlsx
+++ b/Doc/Anforderungen.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/localhost/songquiz/Doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ina\Documents\FHNW\Semester 4 - FS16\webeC\localhost\songquiz\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,9 +16,6 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Beim Beantworten dauert die Anzeige ob richtig oder falsch maximal eine Sekunde.</t>
   </si>
@@ -69,6 +66,15 @@
   </si>
   <si>
     <t>Nicht funktionale Anforderungen an SongQuiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Browserkompatibilität </t>
+  </si>
+  <si>
+    <t>Responsive</t>
+  </si>
+  <si>
+    <t>Chrome, Firefox, Safari, IE11 und Egde</t>
   </si>
 </sst>
 </file>
@@ -108,13 +114,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -383,86 +392,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="94.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Anforderungen.xlsx
+++ b/Doc/Anforderungen.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ina\Documents\FHNW\Semester 4 - FS16\webeC\localhost\songquiz\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yannick\Documents\FHNW\Module\Semester_4\webeC\songquiz\songquiz\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28044" windowHeight="17544" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Beim Beantworten dauert die Anzeige ob richtig oder falsch maximal eine Sekunde.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Das Starten eines neuen Spiels dauert nicht länger als 5 Sekunden (wird sich noch zeigen je nach API Funktionalität)</t>
   </si>
@@ -75,6 +72,15 @@
   </si>
   <si>
     <t>Chrome, Firefox, Safari, IE11 und Egde</t>
+  </si>
+  <si>
+    <t>Slim</t>
+  </si>
+  <si>
+    <t>SQL Injection verhindern.</t>
+  </si>
+  <si>
+    <t>Beim Beantworten dauert die Anzeige, ob richtig oder falsch maximal eine Sekunde.</t>
   </si>
 </sst>
 </file>
@@ -392,101 +398,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="94.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="94.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
